--- a/Sujeto_3/Carbohidrates.xlsx
+++ b/Sujeto_3/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526244A6-2DA4-B143-9873-3C631708EF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC7EF5-B79F-6D4B-8A70-BA844EDB3A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>120.92</t>
+  </si>
+  <si>
+    <t>12.65</t>
+  </si>
+  <si>
+    <t>46.18</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>44.08</t>
+  </si>
+  <si>
+    <t>90.3</t>
+  </si>
+  <si>
+    <t>60.46</t>
+  </si>
+  <si>
+    <t>133.44</t>
+  </si>
+  <si>
+    <t>10.93</t>
+  </si>
+  <si>
+    <t>157.85</t>
+  </si>
+  <si>
+    <t>59.12</t>
+  </si>
+  <si>
+    <t>103.73</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>50.3</t>
+  </si>
+  <si>
+    <t>125.11</t>
+  </si>
+  <si>
+    <t>25.79</t>
+  </si>
+  <si>
+    <t>19.06</t>
+  </si>
+  <si>
+    <t>74.8</t>
   </si>
 </sst>
 </file>
@@ -87,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +489,13 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -451,216 +509,216 @@
       <c r="A2" s="2">
         <v>44210.354166666657</v>
       </c>
-      <c r="B2">
-        <v>120.92</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44210.416666666657</v>
       </c>
-      <c r="B3">
-        <v>12.65</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44210.5625</v>
       </c>
-      <c r="B4">
-        <v>46.18</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44210.770833333343</v>
       </c>
-      <c r="B5">
-        <v>21.01</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44210.875</v>
       </c>
-      <c r="B6">
-        <v>40.927500000000002</v>
+      <c r="B6" s="3">
+        <v>409275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44211.319444444453</v>
       </c>
-      <c r="B7">
-        <v>120.92</v>
+      <c r="B7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44211.5625</v>
       </c>
-      <c r="B8">
-        <v>44.08</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44211.6875</v>
       </c>
-      <c r="B9">
-        <v>90.3</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44211.791666666657</v>
       </c>
-      <c r="B10">
-        <v>90.3</v>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44212.423611111109</v>
       </c>
-      <c r="B11">
-        <v>60.459999999999987</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44212.46875</v>
       </c>
-      <c r="B12">
-        <v>12.65</v>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44212.572916666657</v>
       </c>
-      <c r="B13">
-        <v>133.44</v>
+      <c r="B13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44212.895833333343</v>
       </c>
-      <c r="B14">
-        <v>10.93</v>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44213.375</v>
       </c>
-      <c r="B15">
-        <v>51.304999999999993</v>
+      <c r="B15" s="3">
+        <v>51305</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44213.416666666657</v>
       </c>
-      <c r="B16">
-        <v>12.65</v>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44213.5625</v>
       </c>
-      <c r="B17">
-        <v>157.85</v>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44213.833333333343</v>
       </c>
-      <c r="B18">
-        <v>59.12</v>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44214.354166666657</v>
       </c>
-      <c r="B19">
-        <v>12.65</v>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44214.527777777781</v>
       </c>
-      <c r="B20">
-        <v>120.92</v>
+      <c r="B20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44214.833333333343</v>
       </c>
-      <c r="B21">
-        <v>103.73</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44215.361111111109</v>
       </c>
-      <c r="B22">
-        <v>9.35</v>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44215.458333333343</v>
       </c>
-      <c r="B23">
-        <v>50.3</v>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44215.5625</v>
       </c>
-      <c r="B24">
-        <v>41.835000000000001</v>
+      <c r="B24" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44215.854166666657</v>
       </c>
-      <c r="B25">
-        <v>125.11</v>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44216.322916666657</v>
       </c>
-      <c r="B26">
-        <v>25.79</v>
+      <c r="B26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44216.409722222219</v>
       </c>
-      <c r="B27">
-        <v>19.059999999999999</v>
+      <c r="B27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44216.486111111109</v>
       </c>
-      <c r="B28">
-        <v>51.304999999999993</v>
+      <c r="B28" s="3">
+        <v>51305</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,8 +733,8 @@
       <c r="A30" s="2">
         <v>44216.78125</v>
       </c>
-      <c r="B30">
-        <v>74.8</v>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_3/Carbohidrates.xlsx
+++ b/Sujeto_3/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC7EF5-B79F-6D4B-8A70-BA844EDB3A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1DEF34-E1E1-794D-835C-51C3236C6894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,9 @@
     <t>21.01</t>
   </si>
   <si>
+    <t>40.93</t>
+  </si>
+  <si>
     <t>44.08</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>10.93</t>
   </si>
   <si>
+    <t>51.3</t>
+  </si>
+  <si>
     <t>157.85</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>50.3</t>
   </si>
   <si>
+    <t>41.84</t>
+  </si>
+  <si>
     <t>125.11</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>19.06</t>
+  </si>
+  <si>
+    <t>21.0</t>
   </si>
   <si>
     <t>74.8</t>
@@ -141,13 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,9 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,8 +550,8 @@
       <c r="A6" s="2">
         <v>44210.875</v>
       </c>
-      <c r="B6" s="3">
-        <v>409275</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -558,7 +567,7 @@
         <v>44211.5625</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +575,7 @@
         <v>44211.6875</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,7 +583,7 @@
         <v>44211.791666666657</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -582,7 +591,7 @@
         <v>44212.423611111109</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,7 +607,7 @@
         <v>44212.572916666657</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,15 +615,15 @@
         <v>44212.895833333343</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44213.375</v>
       </c>
-      <c r="B15" s="3">
-        <v>51305</v>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,7 +639,7 @@
         <v>44213.5625</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +647,7 @@
         <v>44213.833333333343</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +671,7 @@
         <v>44214.833333333343</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +679,7 @@
         <v>44215.361111111109</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,15 +687,15 @@
         <v>44215.458333333343</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44215.5625</v>
       </c>
-      <c r="B24" s="3">
-        <v>41835</v>
+      <c r="B24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +703,7 @@
         <v>44215.854166666657</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +711,7 @@
         <v>44216.322916666657</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,23 +719,23 @@
         <v>44216.409722222219</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44216.486111111109</v>
       </c>
-      <c r="B28" s="3">
-        <v>51305</v>
+      <c r="B28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44216.645833333343</v>
       </c>
-      <c r="B29">
-        <v>21</v>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +743,7 @@
         <v>44216.78125</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
